--- a/ig/ch-epr-fhir/StructureDefinition-ChAuditEventIti130Delete.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ChAuditEventIti130Delete.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9473" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9473" uniqueCount="790">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T13:39:01+00:00</t>
+    <t>2025-12-18T15:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1336,7 +1336,7 @@
     <t>AuditEvent.agent:user.type</t>
   </si>
   <si>
-    <t>https://profiles.ihe.net/ITI/BALP/ValueSet/DataSources</t>
+    <t>https://profiles.ihe.net/ITI/BALP/ValueSet/DataSources|1.1.4</t>
   </si>
   <si>
     <t>AuditEvent.agent:user.role</t>
@@ -1775,7 +1775,7 @@
     <t>Institutional policies for privacy and security may optionally fall under different accountability rules based on data life cycle. This provides a differentiating value for those cases.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/object-lifecycle-events|5.2.0</t>
+    <t>http://hl7.org/fhir/ValueSet/object-lifecycle-events|5.3.0-ballot-tc1</t>
   </si>
   <si>
     <t>target of ObservationEvent[code="lifecycle"].value</t>
@@ -2325,7 +2325,7 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
-    <t>https://profiles.ihe.net/ITI/BALP/ValueSet/RestObjectRoles</t>
+    <t>https://profiles.ihe.net/ITI/BALP/ValueSet/RestObjectRoles|1.1.4</t>
   </si>
   <si>
     <t>AuditEvent.entity:data.lifecycle</t>
@@ -2397,6 +2397,9 @@
     <t>AuditEvent.entity:traceparent.what.type</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
     <t>AuditEvent.entity:traceparent.what.identifier</t>
   </si>
   <si>
@@ -2412,6 +2415,9 @@
     <t>AuditEvent.entity:traceparent.what.identifier.type</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
     <t>AuditEvent.entity:traceparent.what.identifier.system</t>
   </si>
   <si>
@@ -2425,6 +2431,10 @@
   </si>
   <si>
     <t>AuditEvent.entity:traceparent.what.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
   </si>
   <si>
     <t>AuditEvent.entity:traceparent.what.display</t>
@@ -2844,7 +2854,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.39453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.7734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -13092,7 +13102,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
         <v>421</v>
       </c>
@@ -13456,7 +13466,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>424</v>
       </c>
@@ -14778,7 +14788,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>436</v>
       </c>
@@ -19712,7 +19722,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="141" hidden="true">
+    <row r="141">
       <c r="A141" t="s" s="2">
         <v>484</v>
       </c>
@@ -29773,7 +29783,7 @@
         <v>641</v>
       </c>
       <c r="Z224" t="s" s="2">
-        <v>642</v>
+        <v>761</v>
       </c>
       <c r="AA224" t="s" s="2">
         <v>81</v>
@@ -29826,7 +29836,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>645</v>
@@ -29946,7 +29956,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>653</v>
@@ -30064,7 +30074,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>655</v>
@@ -30184,7 +30194,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>657</v>
@@ -30306,7 +30316,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>667</v>
@@ -30375,7 +30385,7 @@
         <v>672</v>
       </c>
       <c r="Z229" t="s" s="2">
-        <v>673</v>
+        <v>767</v>
       </c>
       <c r="AA229" t="s" s="2">
         <v>81</v>
@@ -30428,7 +30438,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>676</v>
@@ -30550,7 +30560,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>685</v>
@@ -30579,7 +30589,7 @@
         <v>218</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="M231" t="s" s="2">
         <v>687</v>
@@ -30670,7 +30680,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>693</v>
@@ -30788,7 +30798,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>699</v>
@@ -30814,7 +30824,7 @@
         <v>94</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>700</v>
+        <v>773</v>
       </c>
       <c r="L233" t="s" s="2">
         <v>701</v>
@@ -30908,7 +30918,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>707</v>
@@ -31028,7 +31038,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>535</v>
@@ -31076,7 +31086,7 @@
         <v>81</v>
       </c>
       <c r="S235" t="s" s="2">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="T235" t="s" s="2">
         <v>81</v>
@@ -31150,7 +31160,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>546</v>
@@ -31196,7 +31206,7 @@
         <v>81</v>
       </c>
       <c r="S236" t="s" s="2">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="T236" t="s" s="2">
         <v>81</v>
@@ -31270,7 +31280,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>556</v>
@@ -31392,7 +31402,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>565</v>
@@ -31514,7 +31524,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>574</v>
@@ -31636,7 +31646,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>583</v>
@@ -31756,7 +31766,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>588</v>
@@ -31878,7 +31888,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>596</v>
@@ -31998,7 +32008,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>602</v>
@@ -32116,7 +32126,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>603</v>
@@ -32236,7 +32246,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>604</v>
@@ -32358,7 +32368,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>605</v>
@@ -32476,7 +32486,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>609</v>
@@ -32598,12 +32608,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP247">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
